--- a/session04/2_python_lab/python3-openpyxl/exercises/tmp/02-marks.xlsx
+++ b/session04/2_python_lab/python3-openpyxl/exercises/tmp/02-marks.xlsx
@@ -385,152 +385,197 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Jadwiga Bilecka</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Katarzyna Dawro</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Michał Fądecki</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jolanta Filecka</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rafał Fraczyński</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Andrzej Jadziak</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Barbara Kiszewska</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Rafał Kobek</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Janusz Kurant</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Michał Lipecki</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Krystyna Policka</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Robert Sulik</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Zbigniew Twardzioch</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Tadeusz Zomornik</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Zbigniew Żeligowski</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>3.5</v>
       </c>
     </row>
